--- a/biology/Zoologie/Beira_(animal)/Beira_(animal).xlsx
+++ b/biology/Zoologie/Beira_(animal)/Beira_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorcatragus megalotis
 Le Beira (Dorcatragus megalotis) est une antilope de Somalie. Cette espèce est la seule du genre Dorcatragus.
@@ -512,7 +524,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur: 80 à 86 cm (sans la queue et les cornes) Queue: 6 à 7,5 cm Envergure: 50 à 60 cm Poids: 9 à 11,5 kg Cornes: 9 à 13 cm. La femelle est un peu plus grande et plus lourde que le mâle.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Somalie septentrionale, côte du golfe d'Aden. Éthiopie.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Montagnes arides et sèches, parsemées de buissons; collines et plateaux rocailleux.
 </t>
@@ -605,7 +623,9 @@
           <t>Territoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont sédentaires; Ils ont une densité faible;
 </t>
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,7 +684,9 @@
           <t>Sens</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont une vue et une ouïe excellentes.
 </t>
@@ -693,7 +717,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Surtout le caracal, mais parfois le chat ganté, les hyènes et les chacals sont dangereux pour les jeunes et les adultes, jadis le léopard (Panthère) était leur principal prédateur, et le lion d'Afrique.
 </t>
@@ -724,7 +750,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent surtout de feuilles des buissons, mais également plantes herbacées. Elle peut se passer d'eau pendant six jours.
 </t>
@@ -755,7 +783,9 @@
           <t>Comportement Social</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se regroupent en couple, dans un groupe de 6 individus.
 </t>
@@ -786,7 +816,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">DD, données insuffisantes, ils mettent bas en avril avec 1 seul petit.
 </t>
@@ -817,7 +849,9 @@
           <t>Maturité sexuelle</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">DD, données insuffisante.
 </t>
@@ -848,7 +882,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">DD, données insuffisante.
 </t>
